--- a/biology/Médecine/Jean_Valnet/Jean_Valnet.xlsx
+++ b/biology/Médecine/Jean_Valnet/Jean_Valnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Valnet, né le 26 juillet 1920 à Châlons-sur-Marne (aujourd'hui Châlons-en-Champagne, dans la Marne), mort le 29 mai 1995 à Vulaines-sur-Seine (Seine-et-Marne), est un médecin et chirurgien militaire français, qui a été l'un des artisans du développement de ce qu'on a pu appeler la branche française de l'aromathérapie, rebaptisée phyto-aromathérapie. Il est aussi le créateur de la marque de produits d'aromathérapie « Docteur Valnet ».
 Si René Maurice Gattefossé, ingénieur chimiste, est indubitablement à l'origine du nom comme du principe de l'aromathérapie, ses recherches ont été reprises, développées, systématisées et commercialisées après la seconde guerre mondiale par le Dr Jean Valnet.
@@ -512,20 +524,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Paul Valnet, officier du génie, et de Marie-Germaine Thiébaud, il fait ses études au Prytanée national militaire de la Flèche, à l’École du service de santé militaire et à la faculté de Médecine de Lyon[1].
-Docteur en médecine en 1945, chirurgien, il est aussi diplômé de médecine légale et de psychiatrie, de microbiologie et d'hygiène, de médecine coloniale, et diplômé de médecine du travail (1943-1944)[2].
-Pendant la Seconde Guerre mondiale, il participe au groupe franc Combat à Lyon en 1942, au réseau Brutus en 1943, au corps franc Pommiès. De 1944 à 1945, il est assistant du chef des services chirurgicaux de l'hôpital d'Évacuation 412. En 1945, il obtient son titre de docteur en médecine et il est nommé médecin lieutenant et assistant chirurgien aux hôpitaux d'évacuation 412 et 501 en Allemagne. Il devient médecin de l'École spéciale militaire de Saint-Cyr et de l'École d'application de l'infanterie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Paul Valnet, officier du génie, et de Marie-Germaine Thiébaud, il fait ses études au Prytanée national militaire de la Flèche, à l’École du service de santé militaire et à la faculté de Médecine de Lyon.
+Docteur en médecine en 1945, chirurgien, il est aussi diplômé de médecine légale et de psychiatrie, de microbiologie et d'hygiène, de médecine coloniale, et diplômé de médecine du travail (1943-1944).
+Pendant la Seconde Guerre mondiale, il participe au groupe franc Combat à Lyon en 1942, au réseau Brutus en 1943, au corps franc Pommiès. De 1944 à 1945, il est assistant du chef des services chirurgicaux de l'hôpital d'Évacuation 412. En 1945, il obtient son titre de docteur en médecine et il est nommé médecin lieutenant et assistant chirurgien aux hôpitaux d'évacuation 412 et 501 en Allemagne. Il devient médecin de l'École spéciale militaire de Saint-Cyr et de l'École d'application de l'infanterie.
 Il exerce en tant que Médecin Capitaine durant la Guerre d'Indochine. D'après les citations officielles, il a exercé dans le secteur opérationnel de Cho-Benh, le front d'Hoa-Binh et aux combats de Bich-Du. 
 Pour reconnaissance officielle, il reçoit : 
 la Croix de Guerre pour ses interventions chirurgicales et sa contribution aux évacuations sanitaires sur le front d’Hoa-Binh, attribuée le 12 mai 1952 par délégation du Général Salan (Général d’armée, Haut Commissaire en Indochine et Commandant en chef en Extrême-Orient),
 la Citation à l’ordre de l’armée pour ses interventions lors de l’intervention Mercure et aux combats de Bich-Du, le 29 juin 1952.
-En 1959, le Dr Jean Valnet quitte l'armée pour retourner comme médecin civil à Paris et poursuivre ses recherches. Il se consacre à l’étude[3], et à l’enseignement de la phytothérapie et de l’aromathérapie. 
+En 1959, le Dr Jean Valnet quitte l'armée pour retourner comme médecin civil à Paris et poursuivre ses recherches. Il se consacre à l’étude, et à l’enseignement de la phytothérapie et de l’aromathérapie. 
 Le 13 mars 1969 il est élevé au rang d'Officier de l’ordre de la Légion d’Honneur (prise de rang).
 Il est nommé Officier dans l’ordre des Palmes Académiques pour services rendus à l’Education nationale le 28 janvier 1971.
 En 1971, il est suspendu pendant un an par l'Ordre des médecins, à la suite de la parution de son ouvrage Docteur Nature.
-Jean Valnet est le créateur de la marque de produits d'aromathérapie « Docteur Valnet ». En 1985, il a choisi de confier la réalisation de ses préparations au laboratoire Cosbionat, spécialisé dans la fabrication et le conditionnement de produits à base de plantes[4].
+Jean Valnet est le créateur de la marque de produits d'aromathérapie « Docteur Valnet ». En 1985, il a choisi de confier la réalisation de ses préparations au laboratoire Cosbionat, spécialisé dans la fabrication et le conditionnement de produits à base de plantes.
 Il décède en 1995. Jean Valnet est inhumé à Huanne-Montmartin dans le Doubs.
 </t>
         </is>
@@ -555,16 +569,18 @@
           <t>Travaux et apport de Jean Valnet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1981, il fonde le Collège de phyto-aromathérapie et de médecines de terrain de langue française (J.O.R.F du 2/04/81) (loi de 1901) qui a pour objet, à l'instar de sa première société :
 de regrouper les médecins, pharmaciens, vétérinaires, chirurgiens-dentistes, biologistes, kinésithérapeutes, diététiciens et esthéticiens qui poursuivent les recherches et études sur la phytothérapie, l'aromathérapie ;
 d'utiliser tous les moyens et études de recherches scientifiques mis à sa disposition, y compris la mise en œuvre d'analyses pour dépister les fraudes ou falsifications dans toutes préparations thérapeutiques à usage médical et d'établir des critères précisant la qualité des produits ;
 d'organiser un enseignement post-universitaire destiné aux praticiens ;
 de mettre tous les moyens à disposition et plus particulièrement séminaires, documentation dans le cadre de la formation permanente.
-Nonobstant ses observations cliniques, il s’intéresse également à l'étude des propriétés anti-infectieuses, antibiotiques des huiles essentielles et à leurs modes d'action à la lumière de la bio-électronique de Louis Claude Vincent[5].
-En 1971, le Dr Maurice Girault (de Dijon) crée le terme d'aromatogramme[6] pour caractériser cet antibiogramme particulier effectué, non plus avec des antibiotiques classiques, mais avec des huiles essentielles. Le Dr Jean Valnet sera un des premiers (en 1964 pour les premières publications à destination du grand public) à diffuser dans le grand public les connaissances sur l'aromathérapie et l'aromatogramme[7].
-Jean Valnet participe dans les années 80 à des émissions radiophoniques en direct avec les auditeurs ainsi qu'à la télévision (en France et à l'étranger)[8],[9].
+Nonobstant ses observations cliniques, il s’intéresse également à l'étude des propriétés anti-infectieuses, antibiotiques des huiles essentielles et à leurs modes d'action à la lumière de la bio-électronique de Louis Claude Vincent.
+En 1971, le Dr Maurice Girault (de Dijon) crée le terme d'aromatogramme pour caractériser cet antibiogramme particulier effectué, non plus avec des antibiotiques classiques, mais avec des huiles essentielles. Le Dr Jean Valnet sera un des premiers (en 1964 pour les premières publications à destination du grand public) à diffuser dans le grand public les connaissances sur l'aromathérapie et l'aromatogramme.
+Jean Valnet participe dans les années 80 à des émissions radiophoniques en direct avec les auditeurs ainsi qu'à la télévision (en France et à l'étranger),.
 </t>
         </is>
       </c>
@@ -593,7 +609,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Valnet, François Bruno, André Mahé, Claude Le Prestre, Gilles Lambert, Jacques Ménétrier, Les médecines différentes, éd. Planète, Paris, 1964
 Jean Valnet, Docteur Nature, éd. Fayard, Paris, 1971
